--- a/biology/Botanique/Tricyrtis_formosana/Tricyrtis_formosana.xlsx
+++ b/biology/Botanique/Tricyrtis_formosana/Tricyrtis_formosana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricyrtis formosana est une espèce de plantes de la famille des Liliacées originaires d'Asie (Taiwan).
 Comme les espèces de ce genre, cette plante est souvent dénommée Lis crapaud.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricyrtis formosana est une plante herbacée pérenne pouvant atteindre 80 cm de haut.
 Le feuillage de cette espèce est persistant. La tige florale est érigée. Les fleurs sont en racèmes bifurqués.
@@ -522,7 +536,7 @@
 Elle porte six étamines. Son pistil, triloculaire, tubulaire, est profondément divisé à sa moitié supérieure où chaque partie est perpendiculaire à l'axe du pistil sur une importante longueur (du tiers à la moitié de la longueur total du pistil) et avec l'extrémité recourbée.
 Les ovaires sont glabres et les périanthes et pédicelles sont, eux, couverts de poils hirsutes et glandulifères (caractéristiques de l'espèce).
 Les graines, nombreuses par locule, sont brunes, de petite taille et aplaties.
-À l'identique de tout le genre, elle compte 2 × n = 26 chromosomes[1].
+À l'identique de tout le genre, elle compte 2 × n = 26 chromosomes.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les espèces du genre, Tricyrtis formosana est originaire d'Asie, en particulier de Taiwan. Sa large utilisation ornementale l'a répandue à l'ensemble des pays à climat tempéré, en particulier en France.
 Elle affectionne les terrains humides ombragés.
@@ -583,11 +599,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un échantillon en provenance de Taiwan et collecté par Thomas Oldham est décrit en 1879 par John Gilbert Baker sous le nom de Tricyrtis formosana[2].
-En 1891, Carl Ernst Otto Kuntze se remémore la description du genre Compsoa par David Don, constate l'antériorité de cette dénomination sur celle du genre Tricyrtis de Nathaniel Wallich et donc la renomme Compsoa formosana (Thunb.) Kuntze[3].
-Un exemplaire en provenance des Philippines (Mindanao) est décrit en 1974 par Hermes G. Gutiérrez sous le nom Tricyrtis imeldae H.G.Gut.[4]. Hiroshi Takahashi en 1980[5], R.A.Q. Flores en 1997[6] et Ching-I Peng, Choon-Lin Tiang et Tsai-Wen Hsu en 2007[7] considèrent qu'il s'agit d'un synonyme de Tricyrtis formosana.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un échantillon en provenance de Taiwan et collecté par Thomas Oldham est décrit en 1879 par John Gilbert Baker sous le nom de Tricyrtis formosana.
+En 1891, Carl Ernst Otto Kuntze se remémore la description du genre Compsoa par David Don, constate l'antériorité de cette dénomination sur celle du genre Tricyrtis de Nathaniel Wallich et donc la renomme Compsoa formosana (Thunb.) Kuntze.
+Un exemplaire en provenance des Philippines (Mindanao) est décrit en 1974 par Hermes G. Gutiérrez sous le nom Tricyrtis imeldae H.G.Gut.. Hiroshi Takahashi en 1980, R.A.Q. Flores en 1997 et Ching-I Peng, Choon-Lin Tiang et Tsai-Wen Hsu en 2007 considèrent qu'il s'agit d'un synonyme de Tricyrtis formosana.
 Cette espèce compte donc deux synonymes :
 Compsoa formosana (Thunb.) Kuntze (1891)
 Tricyrtis imeldae H.G.Gut. (1868)
@@ -628,7 +646,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la qualité de sa floraison et son adaptation aux situations ombragées,  l'usage ornemental de cette espèce s'est très largement répandu. De nombreuses variétés horticoles sont maintenant disponibles dont :
 Tricyrtis formosana 'Dark Beauty' - variété aux fleurs violet-rose foncé
